--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -4,17 +4,168 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="10571"/>
+    <workbookView windowWidth="21960" windowHeight="10571" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="问题3.6" sheetId="1" r:id="rId1"/>
+    <sheet name="问题3.2" sheetId="1" r:id="rId1"/>
+    <sheet name="问题3.3" sheetId="2" r:id="rId2"/>
+    <sheet name="问题3.4" sheetId="3" r:id="rId3"/>
+    <sheet name="问题3.6" sheetId="4" r:id="rId4"/>
+    <sheet name="问题3.8" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+  <si>
+    <t>规律</t>
+  </si>
+  <si>
+    <t>如果源操作数是内存引用，则mov操作的类型就由寄存器目的操作数决定。</t>
+  </si>
+  <si>
+    <t>如果目的操作数是内存引用，则mov操作的类型就由源操作数决定。</t>
+  </si>
+  <si>
+    <t>movl %eax,(%rsp)</t>
+  </si>
+  <si>
+    <t>movw (%rax),%dx</t>
+  </si>
+  <si>
+    <t>movb $0xFF,%bl</t>
+  </si>
+  <si>
+    <t>movb (%rsp,%rdx,4),%dl</t>
+  </si>
+  <si>
+    <t>movq (%rdx),%rax</t>
+  </si>
+  <si>
+    <t>movw %dx,(%rax)</t>
+  </si>
+  <si>
+    <t>指令</t>
+  </si>
+  <si>
+    <t>错误之处</t>
+  </si>
+  <si>
+    <t>movb $0xF,(%rbx)</t>
+  </si>
+  <si>
+    <t>%rbx不能作为地址寄存器</t>
+  </si>
+  <si>
+    <t>movl %rax,(%rsp)</t>
+  </si>
+  <si>
+    <t>源操作数%rax的大小是64位，8个字节，对应的指令后缀为movq</t>
+  </si>
+  <si>
+    <t>movw (%rax),4(%rsp)</t>
+  </si>
+  <si>
+    <t>源操作数和目标操作数不能同时是内存引用</t>
+  </si>
+  <si>
+    <t>movb %al,%sl</t>
+  </si>
+  <si>
+    <t>%sl寄存器不存在</t>
+  </si>
+  <si>
+    <t>movq %rax, $0x123</t>
+  </si>
+  <si>
+    <t>常数不能作为目标操作数</t>
+  </si>
+  <si>
+    <t>movl %eax,%dx</t>
+  </si>
+  <si>
+    <t>目标操作数的大小跟源操作数不匹配</t>
+  </si>
+  <si>
+    <t>movb %si,8(%rbp)</t>
+  </si>
+  <si>
+    <t>源操作数%si的大小是16位，2个字节，对应的指令后缀为movw</t>
+  </si>
+  <si>
+    <t>src_t *sp;</t>
+  </si>
+  <si>
+    <t>dest_t *dp;</t>
+  </si>
+  <si>
+    <t>*dp = (dest_t)*sp;</t>
+  </si>
+  <si>
+    <t>src_t</t>
+  </si>
+  <si>
+    <t>dest_t</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>movq (%rdi),%rax</t>
+  </si>
+  <si>
+    <t>movq %rax,(%rsi)</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>movsbl (%rdi),%eax</t>
+  </si>
+  <si>
+    <t>movl %eax,(%rsi)</t>
+  </si>
+  <si>
+    <t>unsigned</t>
+  </si>
+  <si>
+    <t>movzbl (%rdi),%eax</t>
+  </si>
+  <si>
+    <t>标准答案</t>
+  </si>
+  <si>
+    <t>unsigned char</t>
+  </si>
+  <si>
+    <t>movzbq (%rdi),%rax</t>
+  </si>
+  <si>
+    <t>movzbl  (%rdi), %eax</t>
+  </si>
+  <si>
+    <t>movl (%rdi),%eax</t>
+  </si>
+  <si>
+    <t>movb %al,(%rsi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsigned </t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>movsbw (%rdi),%ax</t>
+  </si>
+  <si>
+    <t>movw %ax,(%rsi)</t>
+  </si>
   <si>
     <t>%rbx</t>
   </si>
@@ -28,9 +179,6 @@
     <t>q</t>
   </si>
   <si>
-    <t>指令</t>
-  </si>
-  <si>
     <t>结果</t>
   </si>
   <si>
@@ -68,6 +216,15 @@
   </si>
   <si>
     <t>p+7*q+6</t>
+  </si>
+  <si>
+    <t>目标操作数</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>addq %rcx,(%rax)</t>
   </si>
 </sst>
 </file>
@@ -75,13 +232,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,21 +250,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,20 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -150,6 +279,52 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -165,6 +340,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,69 +397,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,13 +407,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,31 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,19 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,97 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +639,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -474,6 +683,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,63 +725,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,137 +745,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +883,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,8 +946,58 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="0"/>
+  </tableStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8595360" y="2560320"/>
+          <a:ext cx="5464175" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,9 +1259,334 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="5" max="5" width="73.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:5">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
+    <col min="4" max="5" width="15.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="10:10">
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
@@ -1038,74 +1598,112 @@
   <sheetData>
     <row r="2" spans="4:5">
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="4:5">
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="4:5">
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="4:5">
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="4:5">
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B3:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -238,7 +238,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +247,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,38 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -301,16 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,80 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -419,19 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,163 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,11 +623,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,11 +660,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,21 +700,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,30 +718,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,137 +738,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,13 +878,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +972,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8595360" y="2560320"/>
+          <a:off x="8983980" y="2560320"/>
           <a:ext cx="5464175" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1411,32 +1401,33 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J25"/>
+  <dimension ref="D1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
-    <col min="4" max="5" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1463,12 +1454,9 @@
       </c>
     </row>
     <row r="6" spans="6:6">
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="6:6">
-      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
@@ -1482,7 +1470,7 @@
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1498,7 +1486,7 @@
       </c>
     </row>
     <row r="13" spans="6:6">
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1514,10 +1502,10 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1549,12 +1537,12 @@
       <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>44</v>
       </c>
     </row>

--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="10571" activeTab="2"/>
+    <workbookView windowWidth="21983" windowHeight="11484" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="问题3.2" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="问题3.4" sheetId="3" r:id="rId3"/>
     <sheet name="问题3.6" sheetId="4" r:id="rId4"/>
     <sheet name="问题3.8" sheetId="5" r:id="rId5"/>
+    <sheet name="cmp指令" sheetId="6" r:id="rId6"/>
+    <sheet name="test指令" sheetId="7" r:id="rId7"/>
+    <sheet name="add指令" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>规律</t>
   </si>
@@ -225,6 +228,90 @@
   </si>
   <si>
     <t>addq %rcx,(%rax)</t>
+  </si>
+  <si>
+    <t>CMP指令：cmp src2,src1</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>两个数比较</t>
+  </si>
+  <si>
+    <t>src1=src2</t>
+  </si>
+  <si>
+    <t>两个无符号数比较</t>
+  </si>
+  <si>
+    <t>src1&gt;src2</t>
+  </si>
+  <si>
+    <t>src1&lt;src2</t>
+  </si>
+  <si>
+    <t>两个有符号数比较</t>
+  </si>
+  <si>
+    <t>test指令</t>
+  </si>
+  <si>
+    <t>运算</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>test src1,src2</t>
+  </si>
+  <si>
+    <t>src1&amp;src2</t>
+  </si>
+  <si>
+    <t>基于src1&amp;src2的值来设置条件码寄存器，但不会改变源寄存器和目标寄存器的值</t>
+  </si>
+  <si>
+    <t>add指令</t>
+  </si>
+  <si>
+    <t>add a,b</t>
+  </si>
+  <si>
+    <t>t=0</t>
+  </si>
+  <si>
+    <t>两个无符号数相加</t>
+  </si>
+  <si>
+    <t>t&lt;a或者t&lt;b</t>
+  </si>
+  <si>
+    <t>t=a+b</t>
+  </si>
+  <si>
+    <t>两个有符号数相加</t>
+  </si>
+  <si>
+    <t>t&gt;0,t=a+b</t>
+  </si>
+  <si>
+    <t>t&lt;0,t=a+b</t>
+  </si>
+  <si>
+    <t>a&lt;0,b&lt;0,t&gt;0</t>
+  </si>
+  <si>
+    <t>a&gt;0,b&gt;0,t&lt;0</t>
   </si>
 </sst>
 </file>
@@ -238,12 +325,73 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,11 +403,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,21 +425,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,41 +440,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,7 +472,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,29 +484,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -412,187 +506,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,11 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,17 +745,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,26 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,6 +803,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,138 +832,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1257,8 +1369,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="25.4444444444444" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="7"/>
     <col min="5" max="5" width="73.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1278,32 +1390,32 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1324,71 +1436,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="7" customWidth="1"/>
+    <col min="3" max="3" width="58" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1403,7 +1515,7 @@
   <sheetPr/>
   <dimension ref="D1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
@@ -1502,10 +1614,10 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1580,79 +1692,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="28.7777777777778" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1673,24 +1785,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="18.6666666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1698,4 +1810,381 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C2:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="4" max="7" width="3.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4"/>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="E8:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="7:7">
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="4"/>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" s="4"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="4"/>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E18"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="10571"/>
+    <workbookView windowWidth="27500" windowHeight="13300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题3.6" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>%rbx</t>
   </si>
@@ -68,6 +69,39 @@
   </si>
   <si>
     <t>p+7*q+6</t>
+  </si>
+  <si>
+    <t>示例：setl</t>
+  </si>
+  <si>
+    <t>有符号数a-b的溢出判断条件为(a&gt;0&amp;&amp;-b&gt;0&amp;&amp;a+(-b)&lt;0)||(a&lt;0&amp;&amp;-b&lt;0&amp;&amp;a+(-b)&gt;0)</t>
+  </si>
+  <si>
+    <t>有符号数a-b的溢出判断条件为(a&gt;0&amp;&amp;b&lt;0&amp;&amp;a-b&lt;0)||(a&lt;0&amp;&amp;b&gt;0&amp;&amp;a-b&gt;0)</t>
+  </si>
+  <si>
+    <t>有符号数a-b的溢出判断条件为(SF=1&amp;&amp;OF=1)||(SF=0&amp;&amp;OF=1)</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>SF^OF</t>
+  </si>
+  <si>
+    <t>OF=0说明没有溢出发生，SF=1说明a-b&lt;0</t>
+  </si>
+  <si>
+    <t>OF=0说明没有溢出发生，SF=0说明a-b&gt;=0</t>
+  </si>
+  <si>
+    <t>SF=1和OF=1，说明在a-b&lt;0时发生了溢出，根据溢出判断条件可知，有a&gt;0,b&lt;0,显然setl不成立，最终结果为0</t>
+  </si>
+  <si>
+    <t>SF=1和OF=1，说明在a-b&gt;=0时发生了溢出，根据溢出判断条件可知，有a&lt;0,b&gt;0,显然setl成立，最终结果为1</t>
   </si>
 </sst>
 </file>
@@ -78,8 +112,8 @@
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,59 +125,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +146,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -181,22 +201,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -205,30 +240,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,19 +277,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,67 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,91 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,68 +488,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,153 +524,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,56 +746,61 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1017,7 +1056,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1026,14 +1064,14 @@
   <sheetPr/>
   <dimension ref="D2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="28.7767857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
@@ -1112,4 +1150,115 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.9285714285714" customWidth="1"/>
+    <col min="6" max="6" width="107.857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21983" windowHeight="11484" activeTab="7"/>
+    <workbookView windowWidth="27500" windowHeight="13300" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="问题3.2" sheetId="1" r:id="rId1"/>
     <sheet name="问题3.3" sheetId="2" r:id="rId2"/>
-    <sheet name="问题3.4" sheetId="3" r:id="rId3"/>
-    <sheet name="问题3.6" sheetId="4" r:id="rId4"/>
-    <sheet name="问题3.8" sheetId="5" r:id="rId5"/>
-    <sheet name="cmp指令" sheetId="6" r:id="rId6"/>
-    <sheet name="test指令" sheetId="7" r:id="rId7"/>
-    <sheet name="add指令" sheetId="8" r:id="rId8"/>
+    <sheet name="问题3.30" sheetId="9" r:id="rId3"/>
+    <sheet name="问题3.4" sheetId="3" r:id="rId4"/>
+    <sheet name="问题3.6" sheetId="4" r:id="rId5"/>
+    <sheet name="问题3.8" sheetId="5" r:id="rId6"/>
+    <sheet name="cmp指令" sheetId="6" r:id="rId7"/>
+    <sheet name="test指令" sheetId="7" r:id="rId8"/>
+    <sheet name="add指令" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>规律</t>
   </si>
@@ -96,6 +97,69 @@
   </si>
   <si>
     <t>源操作数%si的大小是16位，2个字节，对应的指令后缀为movw</t>
+  </si>
+  <si>
+    <t>switch2</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>.L4</t>
+  </si>
+  <si>
+    <t>addq $1,%rdi</t>
+  </si>
+  <si>
+    <t>跳转表的大小为9，索引值index的范围是0到8</t>
+  </si>
+  <si>
+    <t>.quad</t>
+  </si>
+  <si>
+    <t>.L9</t>
+  </si>
+  <si>
+    <t>cmpq $8,%rdi</t>
+  </si>
+  <si>
+    <t>addq $1,%rdi：将x的取值范围变换到索引值index的范围</t>
+  </si>
+  <si>
+    <t>.L5</t>
+  </si>
+  <si>
+    <t>ja .L2</t>
+  </si>
+  <si>
+    <t>则x的取值范围是-1到7</t>
+  </si>
+  <si>
+    <t>.L6</t>
+  </si>
+  <si>
+    <t>jmp *.L4(,%rdi,8)</t>
+  </si>
+  <si>
+    <t>ja .L2：说明.L2是默认情形</t>
+  </si>
+  <si>
+    <t>.L7</t>
+  </si>
+  <si>
+    <t>.L2</t>
+  </si>
+  <si>
+    <t>.L8</t>
+  </si>
+  <si>
+    <t>.L2是默认情形，即-1，0，1，2，4，5，7</t>
+  </si>
+  <si>
+    <t>单个标号：-1；1；5</t>
+  </si>
+  <si>
+    <t>多个标号：0，7；2，4；3，6</t>
   </si>
   <si>
     <t>src_t *sp;</t>
@@ -320,12 +384,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,21 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,23 +413,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -387,11 +427,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,34 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -439,26 +451,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,14 +475,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +563,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,19 +671,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,61 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,73 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,6 +802,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,6 +821,54 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -755,219 +899,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,12 +1062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -994,63 +1072,83 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="0"/>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1084,8 +1182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8983980" y="2560320"/>
-          <a:ext cx="5464175" cy="426720"/>
+          <a:off x="9318625" y="2275840"/>
+          <a:ext cx="5647055" cy="386080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,7 +1452,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1367,11 +1464,11 @@
       <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="25.4444444444444" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="7"/>
-    <col min="5" max="5" width="73.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4464285714286" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.89285714285714" style="4"/>
+    <col min="5" max="5" width="73.7767857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5">
@@ -1390,32 +1487,32 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,73 +1531,73 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="22" style="7" customWidth="1"/>
-    <col min="3" max="3" width="58" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1513,42 +1610,220 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="D4:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="5" max="5" width="41.9285714285714" customWidth="1"/>
+    <col min="9" max="9" width="19.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="56.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="9:12">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8"/>
   <cols>
-    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="19.7767857142857" customWidth="1"/>
+    <col min="4" max="4" width="20.8928571428571" customWidth="1"/>
+    <col min="5" max="5" width="15.2232142857143" customWidth="1"/>
+    <col min="6" max="6" width="18.6696428571429" customWidth="1"/>
+    <col min="7" max="7" width="20.8928571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1556,122 +1831,122 @@
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="10:10">
       <c r="J14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="D15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D2:E10"/>
@@ -1690,120 +1965,82 @@
       <selection activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="28.7777777777778" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="7"/>
+    <col min="4" max="4" width="28.7767857142857" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.89285714285714" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>50</v>
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>52</v>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>53</v>
+      <c r="E4" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
+      <c r="D5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>57</v>
+      <c r="D6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>59</v>
+      <c r="D7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>61</v>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>63</v>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B3:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="18.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="7" t="s">
-        <v>68</v>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1815,156 +2052,194 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="B3:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="18.6696428571429" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.8928571428571" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.89285714285714" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="7" width="3.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4464285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.6696428571429" customWidth="1"/>
+    <col min="4" max="7" width="3.66964285714286" customWidth="1"/>
+    <col min="8" max="8" width="10.7767857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>75</v>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>77</v>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="4"/>
-      <c r="D6" s="6">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6" t="s">
-        <v>78</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>77</v>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>78</v>
+      <c r="H8" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="4"/>
-      <c r="D9" s="3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>78</v>
+      <c r="H9" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>77</v>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:E3"/>
@@ -1988,32 +2263,32 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="16.4464285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.7767857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2022,160 +2297,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="E8:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8"/>
   <cols>
-    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="18.6696428571429" customWidth="1"/>
+    <col min="10" max="10" width="11.8928571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="7:7">
       <c r="G8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="5:10">
       <c r="E10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="5:10">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>53</v>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>88</v>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="5:10">
-      <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>90</v>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="4"/>
-      <c r="F14" s="3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>93</v>
+      <c r="J15" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" s="4"/>
-      <c r="F16" s="3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>94</v>
+      <c r="J16" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="4"/>
-      <c r="F17" s="3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>95</v>
+      <c r="J17" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="4"/>
-      <c r="F18" s="3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>96</v>
+      <c r="J18" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27500" windowHeight="13300" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="27500" windowHeight="13300" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="问题3.2" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="cmp指令" sheetId="6" r:id="rId7"/>
     <sheet name="test指令" sheetId="7" r:id="rId8"/>
     <sheet name="add指令" sheetId="8" r:id="rId9"/>
+    <sheet name="问题3.34" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>规律</t>
   </si>
@@ -376,6 +377,81 @@
   </si>
   <si>
     <t>a&gt;0,b&gt;0,t&lt;0</t>
+  </si>
+  <si>
+    <t>%rsp</t>
+  </si>
+  <si>
+    <t>%rsp+8</t>
+  </si>
+  <si>
+    <t>%r15</t>
+  </si>
+  <si>
+    <t>%r14</t>
+  </si>
+  <si>
+    <t>%r13</t>
+  </si>
+  <si>
+    <t>%r12</t>
+  </si>
+  <si>
+    <t>%rbp</t>
+  </si>
+  <si>
+    <t>%rax</t>
+  </si>
+  <si>
+    <t>%rdi</t>
+  </si>
+  <si>
+    <t>x+6</t>
+  </si>
+  <si>
+    <t>x+7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x+1</t>
+  </si>
+  <si>
+    <t>x+2</t>
+  </si>
+  <si>
+    <t>x+3</t>
+  </si>
+  <si>
+    <t>x+4</t>
+  </si>
+  <si>
+    <t>x+5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
   </si>
 </sst>
 </file>
@@ -383,11 +459,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -405,33 +481,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,48 +504,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,27 +513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,6 +533,90 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -593,187 +669,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,17 +887,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,9 +913,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,13 +961,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,153 +980,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1466,8 +1545,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="25.4464285714286" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.89285714285714" style="4"/>
+    <col min="2" max="2" width="25.4464285714286" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.89285714285714" style="5"/>
     <col min="5" max="5" width="73.7767857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1487,33 +1566,149 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1533,71 +1728,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="58" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="3" width="58" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1612,7 +1807,7 @@
   <sheetPr/>
   <dimension ref="D4:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1646,7 +1841,7 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F6">
@@ -1663,7 +1858,7 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F7">
@@ -1680,7 +1875,7 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F8">
@@ -1697,7 +1892,7 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F9">
@@ -1708,7 +1903,7 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F10">
@@ -1719,7 +1914,7 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F11">
@@ -1730,7 +1925,7 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F12">
@@ -1741,7 +1936,7 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F13">
@@ -1752,7 +1947,7 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F14">
@@ -1889,10 +2084,10 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1967,79 +2162,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="28.7767857142857" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.89285714285714" style="4"/>
+    <col min="4" max="4" width="28.7767857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.89285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2060,24 +2255,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="18.6696428571429" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.8928571428571" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.89285714285714" style="4"/>
+    <col min="2" max="2" width="18.6696428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.8928571428571" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.89285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2105,140 +2300,140 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="3"/>
-      <c r="D10" s="2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2318,138 +2513,138 @@
       </c>
     </row>
     <row r="10" spans="5:10">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="5:10">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="5:10">
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="3"/>
-      <c r="F14" s="2">
+      <c r="E14" s="4"/>
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" s="3"/>
-      <c r="F16" s="2">
+      <c r="E16" s="4"/>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="3"/>
-      <c r="F17" s="2">
+      <c r="E17" s="4"/>
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="3"/>
-      <c r="F18" s="2">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>117</v>
       </c>
     </row>

--- a/notes/chapter3.xlsx
+++ b/notes/chapter3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21983" windowHeight="11484" activeTab="7"/>
+    <workbookView windowWidth="21983" windowHeight="11484" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="问题3.2" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="cmp指令" sheetId="6" r:id="rId6"/>
     <sheet name="test指令" sheetId="7" r:id="rId7"/>
     <sheet name="add指令" sheetId="8" r:id="rId8"/>
+    <sheet name="问题3.30" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -325,7 +326,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +336,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,129 +473,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,55 +500,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,127 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,6 +705,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,39 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -807,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,154 +814,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,12 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1369,8 +1354,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="25.4444444444444" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="7"/>
+    <col min="2" max="2" width="25.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="4"/>
     <col min="5" max="5" width="73.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1390,32 +1375,32 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1436,71 +1421,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="22" style="7" customWidth="1"/>
-    <col min="3" max="3" width="58" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1614,10 +1599,10 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1692,79 +1677,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="28.7777777777778" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="7"/>
+    <col min="4" max="4" width="28.7777777777778" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1785,24 +1770,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="18.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="7"/>
+    <col min="2" max="2" width="18.6666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1830,140 +1815,140 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="4"/>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="4"/>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2027,7 +2012,7 @@
   <sheetPr/>
   <dimension ref="E8:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -2046,135 +2031,135 @@
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="5:10">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="5:10">
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="4"/>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" s="4"/>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="4"/>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="4"/>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2187,4 +2172,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>